--- a/RawData 2.xlsx
+++ b/RawData 2.xlsx
@@ -47662,7 +47662,7 @@
         <v>0.5395348127498183</v>
       </c>
       <c r="AB288" t="n">
-        <v>1.232558139534884</v>
+        <v>1.234883685444677</v>
       </c>
       <c r="AC288" t="n">
         <v>2.023255813953488</v>
